--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -558,7 +558,7 @@
         <v>-1</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.01147455417988441</v>
+        <v>0.04498377928434749</v>
       </c>
       <c r="D2">
-        <v>0.003772568598437109</v>
+        <v>0.01307560961029575</v>
       </c>
       <c r="E2">
-        <v>4.458539119256422E-05</v>
+        <v>0.0004971790197476622</v>
       </c>
       <c r="F2">
-        <v>1.788248349399169E-08</v>
+        <v>0.0001075149407823162</v>
       </c>
       <c r="G2">
-        <v>1.335700787752359E-06</v>
+        <v>0.001092814935505171</v>
       </c>
       <c r="H2">
-        <v>0.00533932635029144</v>
+        <v>0.00469216381914217</v>
       </c>
       <c r="I2">
-        <v>5.572642811535466E-05</v>
+        <v>0.007235779763046235</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.412457789091604E-09</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01147455417988441</v>
+        <v>0.04498377928434749</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.002783795323150651</v>
+        <v>0.01476387208284291</v>
       </c>
       <c r="E3">
-        <v>2.335963943167485E-06</v>
+        <v>0.001408895489968032</v>
       </c>
       <c r="F3">
-        <v>9.14210283919914E-07</v>
+        <v>0.0005255341541874348</v>
       </c>
       <c r="G3">
-        <v>6.449507594652459E-12</v>
+        <v>1.148307962450801E-05</v>
       </c>
       <c r="H3">
-        <v>5.752442966411309E-11</v>
+        <v>5.007522925204455E-07</v>
       </c>
       <c r="I3">
-        <v>0.003428990128494958</v>
+        <v>0.02721801851139038</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.707742613987762E-09</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003772568598437109</v>
+        <v>0.01307560961029575</v>
       </c>
       <c r="C4">
-        <v>0.002783795323150651</v>
+        <v>0.01476387208284291</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.1564676035770385</v>
+        <v>0.04512865414841927</v>
       </c>
       <c r="F4">
-        <v>0.1486662037091118</v>
+        <v>0.1527187481202603</v>
       </c>
       <c r="G4">
-        <v>0.07201150434315262</v>
+        <v>0.1379302789669306</v>
       </c>
       <c r="H4">
-        <v>0.5856770002425531</v>
+        <v>0.5670572994123195</v>
       </c>
       <c r="I4">
-        <v>9.966363691726876E-05</v>
+        <v>0.005638392614844001</v>
       </c>
       <c r="J4">
-        <v>2.220446049250313E-16</v>
+        <v>2.065157544972607E-07</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.458539119256422E-05</v>
+        <v>0.0004971790197476622</v>
       </c>
       <c r="C5">
-        <v>2.335963943167485E-06</v>
+        <v>0.001408895489968032</v>
       </c>
       <c r="D5">
-        <v>0.1564676035770385</v>
+        <v>0.04512865414841927</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6257891694103201</v>
+        <v>0.6422270523020899</v>
       </c>
       <c r="G5">
-        <v>0.5853207694024074</v>
+        <v>0.6109195650549064</v>
       </c>
       <c r="H5">
-        <v>0.5243664309238496</v>
+        <v>0.5411261269852985</v>
       </c>
       <c r="I5">
-        <v>3.973114814925793E-08</v>
+        <v>0.0004199423600950158</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3.779772401735215E-07</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.788248349399169E-08</v>
+        <v>0.0001075149407823162</v>
       </c>
       <c r="C6">
-        <v>9.14210283919914E-07</v>
+        <v>0.0005255341541874348</v>
       </c>
       <c r="D6">
-        <v>0.1486662037091118</v>
+        <v>0.1527187481202603</v>
       </c>
       <c r="E6">
-        <v>0.6257891694103201</v>
+        <v>0.6422270523020899</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3178851784607999</v>
+        <v>0.4482606319706171</v>
       </c>
       <c r="H6">
-        <v>0.6940153518671552</v>
+        <v>0.635234240063447</v>
       </c>
       <c r="I6">
-        <v>7.880938568405327E-09</v>
+        <v>0.000327040347535057</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.035414695266695E-08</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.335700787752359E-06</v>
+        <v>0.001092814935505171</v>
       </c>
       <c r="C7">
-        <v>6.449507594652459E-12</v>
+        <v>1.148307962450801E-05</v>
       </c>
       <c r="D7">
-        <v>0.07201150434315262</v>
+        <v>0.1379302789669306</v>
       </c>
       <c r="E7">
-        <v>0.5853207694024074</v>
+        <v>0.6109195650549064</v>
       </c>
       <c r="F7">
-        <v>0.3178851784607999</v>
+        <v>0.4482606319706171</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.1084303707631988</v>
+        <v>0.1366559950239505</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.49205363350913E-07</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.369675295634039E-07</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.00533932635029144</v>
+        <v>0.00469216381914217</v>
       </c>
       <c r="C8">
-        <v>5.752442966411309E-11</v>
+        <v>5.007522925204455E-07</v>
       </c>
       <c r="D8">
-        <v>0.5856770002425531</v>
+        <v>0.5670572994123195</v>
       </c>
       <c r="E8">
-        <v>0.5243664309238496</v>
+        <v>0.5411261269852985</v>
       </c>
       <c r="F8">
-        <v>0.6940153518671552</v>
+        <v>0.635234240063447</v>
       </c>
       <c r="G8">
-        <v>0.1084303707631988</v>
+        <v>0.1366559950239505</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.271757561260856E-06</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.335204709018711E-07</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.572642811535466E-05</v>
+        <v>0.007235779763046235</v>
       </c>
       <c r="C9">
-        <v>0.003428990128494958</v>
+        <v>0.02721801851139038</v>
       </c>
       <c r="D9">
-        <v>9.966363691726876E-05</v>
+        <v>0.005638392614844001</v>
       </c>
       <c r="E9">
-        <v>3.973114814925793E-08</v>
+        <v>0.0004199423600950158</v>
       </c>
       <c r="F9">
-        <v>7.880938568405327E-09</v>
+        <v>0.000327040347535057</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>4.49205363350913E-07</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.271757561260856E-06</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.256623110596934E-09</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2.412457789091604E-09</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.707742613987762E-09</v>
       </c>
       <c r="D10">
-        <v>2.220446049250313E-16</v>
+        <v>2.065157544972607E-07</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3.779772401735215E-07</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>7.035414695266695E-08</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>9.369675295634039E-07</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.335204709018711E-07</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.256623110596934E-09</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.537690673887168</v>
+        <v>2.201379963148599</v>
       </c>
       <c r="D2">
-        <v>-2.910838445324638</v>
+        <v>-2.841171320911328</v>
       </c>
       <c r="E2">
-        <v>-4.120283637762213</v>
+        <v>-4.502111337712737</v>
       </c>
       <c r="F2">
-        <v>-5.728905611402501</v>
+        <v>-5.323367558810774</v>
       </c>
       <c r="G2">
-        <v>-4.896546728223408</v>
+        <v>-4.094970504841406</v>
       </c>
       <c r="H2">
-        <v>-2.798607714393854</v>
+        <v>-3.357632941259305</v>
       </c>
       <c r="I2">
-        <v>4.066772794088559</v>
+        <v>3.139876373036356</v>
       </c>
       <c r="J2">
-        <v>-11.38678728255278</v>
+        <v>-13.3246751834285</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.537690673887168</v>
+        <v>-2.201379963148599</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-3.006251187530321</v>
+        <v>-2.779500723094411</v>
       </c>
       <c r="E3">
-        <v>-4.779977404312435</v>
+        <v>-3.965258845578426</v>
       </c>
       <c r="F3">
-        <v>-4.974313920926522</v>
+        <v>-4.473152209334574</v>
       </c>
       <c r="G3">
-        <v>-7.045882671661401</v>
+        <v>-6.621497706459626</v>
       </c>
       <c r="H3">
-        <v>-6.703103523145248</v>
+        <v>-8.71198489908131</v>
       </c>
       <c r="I3">
-        <v>2.941084697843876</v>
+        <v>2.465525480940137</v>
       </c>
       <c r="J3">
-        <v>-12.66981107643435</v>
+        <v>-13.68175999883003</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.910838445324638</v>
+        <v>2.841171320911328</v>
       </c>
       <c r="C4">
-        <v>3.006251187530321</v>
+        <v>2.779500723094411</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.419280687039078</v>
+        <v>-2.199664642348018</v>
       </c>
       <c r="F4">
-        <v>-1.446588671892153</v>
+        <v>-1.512223822266675</v>
       </c>
       <c r="G4">
-        <v>-1.80303209601924</v>
+        <v>-1.57347447131931</v>
       </c>
       <c r="H4">
-        <v>-0.5454805051226406</v>
+        <v>-0.5862237149779225</v>
       </c>
       <c r="I4">
-        <v>3.924443290181651</v>
+        <v>3.265303663541629</v>
       </c>
       <c r="J4">
-        <v>-8.641551834660872</v>
+        <v>-9.374987385440917</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.120283637762213</v>
+        <v>4.502111337712737</v>
       </c>
       <c r="C5">
-        <v>4.779977404312435</v>
+        <v>3.965258845578426</v>
       </c>
       <c r="D5">
-        <v>1.419280687039078</v>
+        <v>2.199664642348018</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4879773513203433</v>
+        <v>0.4748345073810061</v>
       </c>
       <c r="G5">
-        <v>-0.5459990739195085</v>
+        <v>-0.5203953785015708</v>
       </c>
       <c r="H5">
-        <v>0.6370963889122162</v>
+        <v>0.6264096423546874</v>
       </c>
       <c r="I5">
-        <v>5.582635655687351</v>
+        <v>4.590559299016785</v>
       </c>
       <c r="J5">
-        <v>-8.677577850878063</v>
+        <v>-8.918714627837465</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.728905611402501</v>
+        <v>5.323367558810774</v>
       </c>
       <c r="C6">
-        <v>4.974313920926522</v>
+        <v>4.473152209334574</v>
       </c>
       <c r="D6">
-        <v>1.446588671892153</v>
+        <v>1.512223822266675</v>
       </c>
       <c r="E6">
-        <v>-0.4879773513203433</v>
+        <v>-0.4748345073810061</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.999855676629214</v>
+        <v>-0.7802056086325619</v>
       </c>
       <c r="H6">
-        <v>0.3936490142797741</v>
+        <v>0.4849178087389195</v>
       </c>
       <c r="I6">
-        <v>5.875921268537829</v>
+        <v>4.722411490352282</v>
       </c>
       <c r="J6">
-        <v>-9.185925321366479</v>
+        <v>-10.23091114193982</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.896546728223408</v>
+        <v>4.094970504841406</v>
       </c>
       <c r="C7">
-        <v>7.045882671661401</v>
+        <v>6.621497706459626</v>
       </c>
       <c r="D7">
-        <v>1.80303209601924</v>
+        <v>1.57347447131931</v>
       </c>
       <c r="E7">
-        <v>0.5459990739195085</v>
+        <v>0.5203953785015708</v>
       </c>
       <c r="F7">
-        <v>0.999855676629214</v>
+        <v>0.7802056086325619</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.608290848335059</v>
+        <v>1.579010394860475</v>
       </c>
       <c r="I7">
-        <v>10.00263974771825</v>
+        <v>8.791414263961295</v>
       </c>
       <c r="J7">
-        <v>-9.30133856723408</v>
+        <v>-8.263691138353639</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.798607714393854</v>
+        <v>3.357632941259305</v>
       </c>
       <c r="C8">
-        <v>6.703103523145248</v>
+        <v>8.71198489908131</v>
       </c>
       <c r="D8">
-        <v>0.5454805051226406</v>
+        <v>0.5862237149779225</v>
       </c>
       <c r="E8">
-        <v>-0.6370963889122162</v>
+        <v>-0.6264096423546874</v>
       </c>
       <c r="F8">
-        <v>-0.3936490142797741</v>
+        <v>-0.4849178087389195</v>
       </c>
       <c r="G8">
-        <v>-1.608290848335059</v>
+        <v>-1.579010394860475</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.07251351562406</v>
+        <v>8.050973372575127</v>
       </c>
       <c r="J8">
-        <v>-9.844306525478984</v>
+        <v>-9.714787968350356</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-4.066772794088559</v>
+        <v>-3.139876373036356</v>
       </c>
       <c r="C9">
-        <v>-2.941084697843876</v>
+        <v>-2.465525480940137</v>
       </c>
       <c r="D9">
-        <v>-3.924443290181651</v>
+        <v>-3.265303663541629</v>
       </c>
       <c r="E9">
-        <v>-5.582635655687351</v>
+        <v>-4.590559299016785</v>
       </c>
       <c r="F9">
-        <v>-5.875921268537829</v>
+        <v>-4.722411490352282</v>
       </c>
       <c r="G9">
-        <v>-10.00263974771825</v>
+        <v>-8.791414263961295</v>
       </c>
       <c r="H9">
-        <v>-9.07251351562406</v>
+        <v>-8.050973372575127</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-13.38472201201527</v>
+        <v>-13.39305964194965</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.38678728255278</v>
+        <v>13.3246751834285</v>
       </c>
       <c r="C10">
-        <v>12.66981107643435</v>
+        <v>13.68175999883003</v>
       </c>
       <c r="D10">
-        <v>8.641551834660872</v>
+        <v>9.374987385440917</v>
       </c>
       <c r="E10">
-        <v>8.677577850878063</v>
+        <v>8.918714627837465</v>
       </c>
       <c r="F10">
-        <v>9.185925321366479</v>
+        <v>10.23091114193982</v>
       </c>
       <c r="G10">
-        <v>9.30133856723408</v>
+        <v>8.263691138353639</v>
       </c>
       <c r="H10">
-        <v>9.844306525478984</v>
+        <v>9.714787968350356</v>
       </c>
       <c r="I10">
-        <v>13.38472201201527</v>
+        <v>13.39305964194965</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,16 +1440,16 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>87.5</v>
+        <v>62.5</v>
       </c>
       <c r="F2">
         <v>0.6167276231584793</v>
@@ -1457,42 +1457,42 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>0.6387781983476837</v>
+        <v>0.6645563381915951</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
       <c r="F4">
-        <v>0.6645563381915951</v>
+        <v>0.6387781983476837</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1503,10 +1503,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>12.5</v>
@@ -1523,10 +1523,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>12.5</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -523,31 +523,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -558,10 +558,10 @@
         <v>-1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -611,7 +611,7 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -625,7 +625,7 @@
         <v>-1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -675,7 +675,7 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -721,19 +721,19 @@
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04498377928434749</v>
+        <v>0.003594796041186177</v>
       </c>
       <c r="D2">
-        <v>0.01307560961029575</v>
+        <v>0.0002301481363833346</v>
       </c>
       <c r="E2">
-        <v>0.0004971790197476622</v>
+        <v>2.511496970725169E-05</v>
       </c>
       <c r="F2">
-        <v>0.0001075149407823162</v>
+        <v>6.911495584738248E-07</v>
       </c>
       <c r="G2">
-        <v>0.001092814935505171</v>
+        <v>7.240015031939606E-09</v>
       </c>
       <c r="H2">
-        <v>0.00469216381914217</v>
+        <v>3.573432796577514E-05</v>
       </c>
       <c r="I2">
-        <v>0.007235779763046235</v>
+        <v>0.01088273972052511</v>
       </c>
       <c r="J2">
-        <v>2.412457789091604E-09</v>
+        <v>0.0001758698540863524</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04498377928434749</v>
+        <v>0.003594796041186177</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.01476387208284291</v>
+        <v>0.0001526887696963186</v>
       </c>
       <c r="E3">
-        <v>0.001408895489968032</v>
+        <v>3.983936938323218E-05</v>
       </c>
       <c r="F3">
-        <v>0.0005255341541874348</v>
+        <v>2.547958874998812E-06</v>
       </c>
       <c r="G3">
-        <v>1.148307962450801E-05</v>
+        <v>8.881784197001252E-16</v>
       </c>
       <c r="H3">
-        <v>5.007522925204455E-07</v>
+        <v>7.511575805807524E-10</v>
       </c>
       <c r="I3">
-        <v>0.02721801851139038</v>
+        <v>0.753606893721422</v>
       </c>
       <c r="J3">
-        <v>1.707742613987762E-09</v>
+        <v>3.561679200458912E-07</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01307560961029575</v>
+        <v>0.0002301481363833346</v>
       </c>
       <c r="C4">
-        <v>0.01476387208284291</v>
+        <v>0.0001526887696963186</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.04512865414841927</v>
+        <v>0.0007499692384489443</v>
       </c>
       <c r="F4">
-        <v>0.1527187481202603</v>
+        <v>0.1732445550996995</v>
       </c>
       <c r="G4">
-        <v>0.1379302789669306</v>
+        <v>0.001130105810127624</v>
       </c>
       <c r="H4">
-        <v>0.5670572994123195</v>
+        <v>0.04456429261155703</v>
       </c>
       <c r="I4">
-        <v>0.005638392614844001</v>
+        <v>0.0003631821149587822</v>
       </c>
       <c r="J4">
-        <v>2.065157544972607E-07</v>
+        <v>0.1086626708544691</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004971790197476622</v>
+        <v>2.511496970725169E-05</v>
       </c>
       <c r="C5">
-        <v>0.001408895489968032</v>
+        <v>3.983936938323218E-05</v>
       </c>
       <c r="D5">
-        <v>0.04512865414841927</v>
+        <v>0.0007499692384489443</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6422270523020899</v>
+        <v>0.7834492360873999</v>
       </c>
       <c r="G5">
-        <v>0.6109195650549064</v>
+        <v>0.00951001740559021</v>
       </c>
       <c r="H5">
-        <v>0.5411261269852985</v>
+        <v>0.1769832962549804</v>
       </c>
       <c r="I5">
-        <v>0.0004199423600950158</v>
+        <v>0.0001095910904951314</v>
       </c>
       <c r="J5">
-        <v>3.779772401735215E-07</v>
+        <v>0.3655045138699142</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0001075149407823162</v>
+        <v>6.911495584738248E-07</v>
       </c>
       <c r="C6">
-        <v>0.0005255341541874348</v>
+        <v>2.547958874998812E-06</v>
       </c>
       <c r="D6">
-        <v>0.1527187481202603</v>
+        <v>0.1732445550996995</v>
       </c>
       <c r="E6">
-        <v>0.6422270523020899</v>
+        <v>0.7834492360873999</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4482606319706171</v>
+        <v>0.00344475767622221</v>
       </c>
       <c r="H6">
-        <v>0.635234240063447</v>
+        <v>0.1849536767218087</v>
       </c>
       <c r="I6">
-        <v>0.000327040347535057</v>
+        <v>5.208420378144396E-05</v>
       </c>
       <c r="J6">
-        <v>7.035414695266695E-08</v>
+        <v>0.5023289859498807</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.001092814935505171</v>
+        <v>7.240015031939606E-09</v>
       </c>
       <c r="C7">
-        <v>1.148307962450801E-05</v>
+        <v>8.881784197001252E-16</v>
       </c>
       <c r="D7">
-        <v>0.1379302789669306</v>
+        <v>0.001130105810127624</v>
       </c>
       <c r="E7">
-        <v>0.6109195650549064</v>
+        <v>0.00951001740559021</v>
       </c>
       <c r="F7">
-        <v>0.4482606319706171</v>
+        <v>0.00344475767622221</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.1366559950239505</v>
+        <v>0.02991335223314029</v>
       </c>
       <c r="I7">
-        <v>4.49205363350913E-07</v>
+        <v>1.514344205588714E-13</v>
       </c>
       <c r="J7">
-        <v>9.369675295634039E-07</v>
+        <v>0.02169587384781702</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.00469216381914217</v>
+        <v>3.573432796577514E-05</v>
       </c>
       <c r="C8">
-        <v>5.007522925204455E-07</v>
+        <v>7.511575805807524E-10</v>
       </c>
       <c r="D8">
-        <v>0.5670572994123195</v>
+        <v>0.04456429261155703</v>
       </c>
       <c r="E8">
-        <v>0.5411261269852985</v>
+        <v>0.1769832962549804</v>
       </c>
       <c r="F8">
-        <v>0.635234240063447</v>
+        <v>0.1849536767218087</v>
       </c>
       <c r="G8">
-        <v>0.1366559950239505</v>
+        <v>0.02991335223314029</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.271757561260856E-06</v>
+        <v>2.714404034875884E-09</v>
       </c>
       <c r="J8">
-        <v>1.335204709018711E-07</v>
+        <v>0.4946359421620126</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.007235779763046235</v>
+        <v>0.01088273972052511</v>
       </c>
       <c r="C9">
-        <v>0.02721801851139038</v>
+        <v>0.753606893721422</v>
       </c>
       <c r="D9">
-        <v>0.005638392614844001</v>
+        <v>0.0003631821149587822</v>
       </c>
       <c r="E9">
-        <v>0.0004199423600950158</v>
+        <v>0.0001095910904951314</v>
       </c>
       <c r="F9">
-        <v>0.000327040347535057</v>
+        <v>5.208420378144396E-05</v>
       </c>
       <c r="G9">
-        <v>4.49205363350913E-07</v>
+        <v>1.514344205588714E-13</v>
       </c>
       <c r="H9">
-        <v>1.271757561260856E-06</v>
+        <v>2.714404034875884E-09</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>2.256623110596934E-09</v>
+        <v>3.90913675407667E-06</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.412457789091604E-09</v>
+        <v>0.0001758698540863524</v>
       </c>
       <c r="C10">
-        <v>1.707742613987762E-09</v>
+        <v>3.561679200458912E-07</v>
       </c>
       <c r="D10">
-        <v>2.065157544972607E-07</v>
+        <v>0.1086626708544691</v>
       </c>
       <c r="E10">
-        <v>3.779772401735215E-07</v>
+        <v>0.3655045138699142</v>
       </c>
       <c r="F10">
-        <v>7.035414695266695E-08</v>
+        <v>0.5023289859498807</v>
       </c>
       <c r="G10">
-        <v>9.369675295634039E-07</v>
+        <v>0.02169587384781702</v>
       </c>
       <c r="H10">
-        <v>1.335204709018711E-07</v>
+        <v>0.4946359421620126</v>
       </c>
       <c r="I10">
-        <v>2.256623110596934E-09</v>
+        <v>3.90913675407667E-06</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.201379963148599</v>
+        <v>3.259001147764866</v>
       </c>
       <c r="D2">
-        <v>-2.841171320911328</v>
+        <v>-4.394523902863808</v>
       </c>
       <c r="E2">
-        <v>-4.502111337712737</v>
+        <v>-5.307299128682813</v>
       </c>
       <c r="F2">
-        <v>-5.323367558810774</v>
+        <v>-6.856466719935632</v>
       </c>
       <c r="G2">
-        <v>-4.094970504841406</v>
+        <v>-9.046127001188466</v>
       </c>
       <c r="H2">
-        <v>-3.357632941259305</v>
+        <v>-5.160671200508182</v>
       </c>
       <c r="I2">
-        <v>3.139876373036356</v>
+        <v>2.781502725355768</v>
       </c>
       <c r="J2">
-        <v>-13.3246751834285</v>
+        <v>-4.504634511771715</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.201379963148599</v>
+        <v>-3.259001147764866</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-2.779500723094411</v>
+        <v>-4.562529842408516</v>
       </c>
       <c r="E3">
-        <v>-3.965258845578426</v>
+        <v>-5.115590458757363</v>
       </c>
       <c r="F3">
-        <v>-4.473152209334574</v>
+        <v>-6.280066372663849</v>
       </c>
       <c r="G3">
-        <v>-6.621497706459626</v>
+        <v>-20.47102670421127</v>
       </c>
       <c r="H3">
-        <v>-8.71198489908131</v>
+        <v>-10.26298569040461</v>
       </c>
       <c r="I3">
-        <v>2.465525480940137</v>
+        <v>0.3178355090128482</v>
       </c>
       <c r="J3">
-        <v>-13.68175999883003</v>
+        <v>-7.156793794112724</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.841171320911328</v>
+        <v>4.394523902863808</v>
       </c>
       <c r="C4">
-        <v>2.779500723094411</v>
+        <v>4.562529842408516</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2.199664642348018</v>
+        <v>-3.910540609412664</v>
       </c>
       <c r="F4">
-        <v>-1.512223822266675</v>
+        <v>-1.407525229955906</v>
       </c>
       <c r="G4">
-        <v>-1.57347447131931</v>
+        <v>-3.74167837375581</v>
       </c>
       <c r="H4">
-        <v>-0.5862237149779225</v>
+        <v>-2.13040099614159</v>
       </c>
       <c r="I4">
-        <v>3.265303663541629</v>
+        <v>4.207834177157394</v>
       </c>
       <c r="J4">
-        <v>-9.374987385440917</v>
+        <v>-1.672129875801579</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.502111337712737</v>
+        <v>5.307299128682813</v>
       </c>
       <c r="C5">
-        <v>3.965258845578426</v>
+        <v>5.115590458757363</v>
       </c>
       <c r="D5">
-        <v>2.199664642348018</v>
+        <v>3.910540609412664</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4748345073810061</v>
+        <v>-0.2782099430061196</v>
       </c>
       <c r="G5">
-        <v>-0.5203953785015708</v>
+        <v>-2.840807934751633</v>
       </c>
       <c r="H5">
-        <v>0.6264096423546874</v>
+        <v>-1.394858940066405</v>
       </c>
       <c r="I5">
-        <v>4.590559299016785</v>
+        <v>4.698522684740125</v>
       </c>
       <c r="J5">
-        <v>-8.918714627837465</v>
+        <v>-0.9240120800896569</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.323367558810774</v>
+        <v>6.856466719935632</v>
       </c>
       <c r="C6">
-        <v>4.473152209334574</v>
+        <v>6.280066372663849</v>
       </c>
       <c r="D6">
-        <v>1.512223822266675</v>
+        <v>1.407525229955906</v>
       </c>
       <c r="E6">
-        <v>-0.4748345073810061</v>
+        <v>0.2782099430061196</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.7802056086325619</v>
+        <v>-3.277011755938458</v>
       </c>
       <c r="H6">
-        <v>0.4849178087389195</v>
+        <v>-1.368551493231212</v>
       </c>
       <c r="I6">
-        <v>4.722411490352282</v>
+        <v>5.004729984812932</v>
       </c>
       <c r="J6">
-        <v>-10.23091114193982</v>
+        <v>-0.6820446192980472</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.094970504841406</v>
+        <v>9.046127001188466</v>
       </c>
       <c r="C7">
-        <v>6.621497706459626</v>
+        <v>20.47102670421127</v>
       </c>
       <c r="D7">
-        <v>1.57347447131931</v>
+        <v>3.74167837375581</v>
       </c>
       <c r="E7">
-        <v>0.5203953785015708</v>
+        <v>2.840807934751633</v>
       </c>
       <c r="F7">
-        <v>0.7802056086325619</v>
+        <v>3.277011755938458</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.579010394860475</v>
+        <v>2.32152266628265</v>
       </c>
       <c r="I7">
-        <v>8.791414263961295</v>
+        <v>15.89900468903658</v>
       </c>
       <c r="J7">
-        <v>-8.263691138353639</v>
+        <v>2.470998039726348</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.357632941259305</v>
+        <v>5.160671200508182</v>
       </c>
       <c r="C8">
-        <v>8.71198489908131</v>
+        <v>10.26298569040461</v>
       </c>
       <c r="D8">
-        <v>0.5862237149779225</v>
+        <v>2.13040099614159</v>
       </c>
       <c r="E8">
-        <v>-0.6264096423546874</v>
+        <v>1.394858940066405</v>
       </c>
       <c r="F8">
-        <v>-0.4849178087389195</v>
+        <v>1.368551493231212</v>
       </c>
       <c r="G8">
-        <v>-1.579010394860475</v>
+        <v>-2.32152266628265</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>8.050973372575127</v>
+        <v>9.561071957727441</v>
       </c>
       <c r="J8">
-        <v>-9.714787968350356</v>
+        <v>0.6945039461431082</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-3.139876373036356</v>
+        <v>-2.781502725355768</v>
       </c>
       <c r="C9">
-        <v>-2.465525480940137</v>
+        <v>-0.3178355090128482</v>
       </c>
       <c r="D9">
-        <v>-3.265303663541629</v>
+        <v>-4.207834177157394</v>
       </c>
       <c r="E9">
-        <v>-4.590559299016785</v>
+        <v>-4.698522684740125</v>
       </c>
       <c r="F9">
-        <v>-4.722411490352282</v>
+        <v>-5.004729984812932</v>
       </c>
       <c r="G9">
-        <v>-8.791414263961295</v>
+        <v>-15.89900468903658</v>
       </c>
       <c r="H9">
-        <v>-8.050973372575127</v>
+        <v>-9.561071957727441</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-13.39305964194965</v>
+        <v>-6.094771748856358</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.3246751834285</v>
+        <v>4.504634511771715</v>
       </c>
       <c r="C10">
-        <v>13.68175999883003</v>
+        <v>7.156793794112724</v>
       </c>
       <c r="D10">
-        <v>9.374987385440917</v>
+        <v>1.672129875801579</v>
       </c>
       <c r="E10">
-        <v>8.918714627837465</v>
+        <v>0.9240120800896569</v>
       </c>
       <c r="F10">
-        <v>10.23091114193982</v>
+        <v>0.6820446192980472</v>
       </c>
       <c r="G10">
-        <v>8.263691138353639</v>
+        <v>-2.470998039726348</v>
       </c>
       <c r="H10">
-        <v>9.714787968350356</v>
+        <v>-0.6945039461431082</v>
       </c>
       <c r="I10">
-        <v>13.39305964194965</v>
+        <v>6.094771748856358</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1437,102 +1437,102 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>62.5</v>
+        <v>75</v>
       </c>
       <c r="F2">
-        <v>0.6167276231584793</v>
+        <v>0.6328948958871112</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F3">
-        <v>0.6645563381915951</v>
+        <v>0.610506181469891</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F4">
-        <v>0.6387781983476837</v>
+        <v>0.6091631725583236</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
       <c r="D5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>0.7166134370967593</v>
+        <v>0.6597272638875294</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6927551021447618</v>
+        <v>0.6689745337779672</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1540,19 +1540,19 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7113671716621648</v>
+        <v>0.6714338599525211</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1560,19 +1560,19 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7258043778608845</v>
+        <v>0.7047307197580646</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1580,19 +1580,19 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7046074874561903</v>
+        <v>0.6891776358088657</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.888373636049735</v>
+        <v>0.6792272693479734</v>
       </c>
     </row>
   </sheetData>
